--- a/medicine/Enfance/Francien_Giraudi/Francien_Giraudi.xlsx
+++ b/medicine/Enfance/Francien_Giraudi/Francien_Giraudi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francien Giraudi, née le 25 juin 1949 à Londres au Royaume-Uni, est la présidente fondatrice d'une association monégasque qui vient en aide aux enfants malades de Monaco et de la région Provence-Alpes-Côte d'Azur. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francien Giraudi produit en 2011 pour les enfants de son association et sous le haut patronage du Prince Albert II de Monaco la comédie musicale de Cendrillon avec la collaboration de Julius Green de Bill Kenwright de Londres. En 2013 Mission Rêve[1] voit le jour au Grimaldi Forum, sous le haut patronage du Prince Albert II de Monaco avec Mario Barravecchia et, Grégoire et Denitsa de Danse avec les stars. 4 000 enfants sont invités dans le cadre du « Noël de Frankie » et deux séances sont ouvertes au public monégasque.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francien Giraudi produit en 2011 pour les enfants de son association et sous le haut patronage du Prince Albert II de Monaco la comédie musicale de Cendrillon avec la collaboration de Julius Green de Bill Kenwright de Londres. En 2013 Mission Rêve voit le jour au Grimaldi Forum, sous le haut patronage du Prince Albert II de Monaco avec Mario Barravecchia et, Grégoire et Denitsa de Danse avec les stars. 4 000 enfants sont invités dans le cadre du « Noël de Frankie » et deux séances sont ouvertes au public monégasque.
 </t>
         </is>
       </c>
